--- a/examples/Full_mwtab_example/NMR/extract/NMR_colon_measurements.xlsx
+++ b/examples/Full_mwtab_example/NMR/extract/NMR_colon_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\examples\Full_mwtab_example\NMR\extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD65895B-0A77-4701-9647-0036A98A0F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01C7131-7BFE-462E-A9C9-FA39FEC70328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2220" windowWidth="21720" windowHeight="12975" xr2:uid="{432708A5-97B1-49E8-8A1C-5E278420EF0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{432708A5-97B1-49E8-8A1C-5E278420EF0F}"/>
   </bookViews>
   <sheets>
     <sheet name="#automate" sheetId="3" r:id="rId1"/>
@@ -2305,7 +2305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C32B4-4612-4621-9B73-94B95602C2C8}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -74050,15 +74050,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6103AD33-330F-4815-96B0-5CF8C0E460E2}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -74078,7 +74078,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -74089,7 +74089,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -74100,7 +74100,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -74111,7 +74111,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -74122,7 +74122,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>89</v>
       </c>
@@ -74133,7 +74133,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>597</v>
       </c>
@@ -74144,7 +74144,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>598</v>
       </c>
@@ -74155,7 +74155,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>107</v>
       </c>
@@ -74166,7 +74166,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -74186,7 +74186,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>105</v>
       </c>
@@ -74196,8 +74196,12 @@
       <c r="F13" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S13" t="str">
+        <f>_xlfn.CONCAT("r'",B13,"',r'",C13,"'")</f>
+        <v>r'01_A0_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'01_A0_Colon_naive_0days_170427_UKy_GCH_rep1-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>108</v>
       </c>
@@ -74207,8 +74211,12 @@
       <c r="F14" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S14" t="str">
+        <f t="shared" ref="S14:S27" si="0">_xlfn.CONCAT("r'",B14,"',r'",C14,"'")</f>
+        <v>r'02_A1_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'02_A1_Colon_naive_0days_170427_UKy_GCH_rep2-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>109</v>
       </c>
@@ -74218,8 +74226,12 @@
       <c r="F15" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v>r'03_A2_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'03_A2_Colon_naive_0days_170427_UKy_GCH_rep3-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>110</v>
       </c>
@@ -74229,8 +74241,12 @@
       <c r="F16" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S16" t="str">
+        <f t="shared" si="0"/>
+        <v>r'04_B0_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'04_B0_Colon_syngenic_42days_170427_UKy_GCH_rep1-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>111</v>
       </c>
@@ -74240,8 +74256,12 @@
       <c r="F17" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S17" t="str">
+        <f t="shared" si="0"/>
+        <v>r'05_B1_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'05_B1_Colon_syngenic_42days_170427_UKy_GCH_rep2-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>112</v>
       </c>
@@ -74251,8 +74271,12 @@
       <c r="F18" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S18" t="str">
+        <f t="shared" si="0"/>
+        <v>r'06_B2_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'06_B2_Colon_syngenic_42days_170427_UKy_GCH_rep3-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>113</v>
       </c>
@@ -74262,8 +74286,12 @@
       <c r="F19" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S19" t="str">
+        <f t="shared" si="0"/>
+        <v>r'07_C1-1_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'07_C1-1_Colon_allogenic_42days_170427_UKy_GCH_rep1-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>114</v>
       </c>
@@ -74273,8 +74301,12 @@
       <c r="F20" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S20" t="str">
+        <f t="shared" si="0"/>
+        <v>r'08_C1-2_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'08_C1-2_Colon_allogenic_42days_170427_UKy_GCH_rep2-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>115</v>
       </c>
@@ -74284,8 +74316,12 @@
       <c r="F21" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S21" t="str">
+        <f t="shared" si="0"/>
+        <v>r'09_C2-0_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'09_C2-0_Colon_allogenic_42days_170427_UKy_GCH_rep1-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>116</v>
       </c>
@@ -74295,8 +74331,12 @@
       <c r="F22" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S22" t="str">
+        <f t="shared" si="0"/>
+        <v>r'10_B1-0_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'10_B1-0_Colon_syngenic_7days_170427_UKy_GCH_rep1-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>117</v>
       </c>
@@ -74306,8 +74346,12 @@
       <c r="F23" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S23" t="str">
+        <f t="shared" si="0"/>
+        <v>r'11_B1-1_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'11_B1-1_Colon_syngenic_7days_170427_UKy_GCH_rep2-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>118</v>
       </c>
@@ -74317,8 +74361,12 @@
       <c r="F24" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S24" t="str">
+        <f t="shared" si="0"/>
+        <v>r'12_B1-2_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'12_B1-2_Colon_syngenic_7days_170427_UKy_GCH_rep3-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>119</v>
       </c>
@@ -74328,8 +74376,12 @@
       <c r="F25" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S25" t="str">
+        <f t="shared" si="0"/>
+        <v>r'13_C1-1_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'13_C1-1_Colon_allogenic_7days_170427_UKy_GCH_rep1-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>120</v>
       </c>
@@ -74339,8 +74391,12 @@
       <c r="F26" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="S26" t="str">
+        <f t="shared" si="0"/>
+        <v>r'14_C1-2_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'14_C1-2_Colon_allogenic_7days_170427_UKy_GCH_rep2-polar-NMR_A'</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>121</v>
       </c>
@@ -74349,6 +74405,10 @@
       </c>
       <c r="F27" t="s">
         <v>596</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="0"/>
+        <v>r'15_C1-20_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01',r'15_C1-20_Colon_allogenic_7days_170427_UKy_GCH_rep3-polar-NMR_A'</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Full_mwtab_example/NMR/extract/NMR_colon_measurements.xlsx
+++ b/examples/Full_mwtab_example/NMR/extract/NMR_colon_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\examples\Full_mwtab_example\NMR\extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01C7131-7BFE-462E-A9C9-FA39FEC70328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F24293-6B12-4225-A12A-654BE7762EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{432708A5-97B1-49E8-8A1C-5E278420EF0F}"/>
+    <workbookView xWindow="4215" yWindow="1140" windowWidth="21720" windowHeight="12975" activeTab="2" xr2:uid="{432708A5-97B1-49E8-8A1C-5E278420EF0F}"/>
   </bookViews>
   <sheets>
     <sheet name="#automate" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6424" uniqueCount="632">
   <si>
     <t>Sample</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>#.entity.id</t>
-  </si>
-  <si>
-    <t>#measurement.assignment.value</t>
   </si>
   <si>
     <t>#ignore</t>
@@ -1728,9 +1725,6 @@
     <t>#measurement.transient_peak;#%type="integer"</t>
   </si>
   <si>
-    <t>#measurement.resonance_assignment</t>
-  </si>
-  <si>
     <t>#unique=false</t>
   </si>
   <si>
@@ -1842,9 +1836,6 @@
     <t>Glu-3b</t>
   </si>
   <si>
-    <t>#measurement.assignment.assign</t>
-  </si>
-  <si>
     <t>transient_peak_number</t>
   </si>
   <si>
@@ -1930,6 +1921,24 @@
   </si>
   <si>
     <t>15_C1-20_13C6-Glc_UKy_GCH_Ms_colon_PRESAT_01.fid</t>
+  </si>
+  <si>
+    <t>#measurement.compound.value</t>
+  </si>
+  <si>
+    <t>#measurement.compound</t>
+  </si>
+  <si>
+    <t>assignment method</t>
+  </si>
+  <si>
+    <t>#measurement.assignment%method.assign</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>#measurement.compound.assign</t>
   </si>
 </sst>
 </file>
@@ -2305,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C32B4-4612-4621-9B73-94B95602C2C8}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,84 +2333,84 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" t="s">
         <v>521</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>522</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>523</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>524</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>525</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>526</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>527</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>528</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>529</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>530</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>531</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>532</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>533</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>534</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>535</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>536</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>537</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>538</v>
       </c>
-      <c r="U2" t="s">
-        <v>539</v>
-      </c>
       <c r="V2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G3" t="s">
         <v>542</v>
-      </c>
-      <c r="F3" t="s">
-        <v>542</v>
-      </c>
-      <c r="G3" t="s">
-        <v>543</v>
       </c>
       <c r="H3">
         <v>0.5</v>
@@ -2410,22 +2419,22 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>543</v>
+      </c>
+      <c r="K3" t="s">
         <v>544</v>
-      </c>
-      <c r="K3" t="s">
-        <v>545</v>
       </c>
       <c r="L3">
         <v>1.7</v>
       </c>
       <c r="M3" t="s">
+        <v>545</v>
+      </c>
+      <c r="N3" t="s">
         <v>546</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>547</v>
-      </c>
-      <c r="O3" t="s">
-        <v>548</v>
       </c>
       <c r="P3" t="s">
         <v>7</v>
@@ -2440,16 +2449,16 @@
         <v>4</v>
       </c>
       <c r="T3" t="s">
+        <v>548</v>
+      </c>
+      <c r="U3" t="s">
         <v>549</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>550</v>
       </c>
-      <c r="V3" t="s">
-        <v>551</v>
-      </c>
       <c r="W3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -2457,178 +2466,178 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D8" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D16" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D18" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D19" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D20" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2649,7 +2658,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D26" t="s">
         <v>127</v>
@@ -2660,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2700,7 +2709,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -2708,28 +2717,28 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D35" t="s">
-        <v>561</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -74053,7 +74062,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74063,19 +74072,19 @@
         <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>626</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="D1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -74083,10 +74092,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -74094,10 +74103,10 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -74105,10 +74114,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -74116,10 +74125,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -74127,32 +74136,32 @@
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -74160,10 +74169,10 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -74171,19 +74180,19 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" t="s">
+        <v>578</v>
+      </c>
+      <c r="F12" t="s">
         <v>579</v>
       </c>
-      <c r="C12" t="s">
-        <v>580</v>
-      </c>
-      <c r="F12" t="s">
-        <v>581</v>
-      </c>
       <c r="L12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -74191,10 +74200,10 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S13" t="str">
         <f>_xlfn.CONCAT("r'",B13,"',r'",C13,"'")</f>
@@ -74206,10 +74215,10 @@
         <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" ref="S14:S27" si="0">_xlfn.CONCAT("r'",B14,"',r'",C14,"'")</f>
@@ -74221,10 +74230,10 @@
         <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="0"/>
@@ -74236,10 +74245,10 @@
         <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="0"/>
@@ -74251,10 +74260,10 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="0"/>
@@ -74266,10 +74275,10 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="0"/>
@@ -74281,10 +74290,10 @@
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="0"/>
@@ -74296,10 +74305,10 @@
         <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S20" t="str">
         <f t="shared" si="0"/>
@@ -74311,10 +74320,10 @@
         <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="0"/>
@@ -74326,10 +74335,10 @@
         <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S22" t="str">
         <f t="shared" si="0"/>
@@ -74341,10 +74350,10 @@
         <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="S23" t="str">
         <f t="shared" si="0"/>
@@ -74356,10 +74365,10 @@
         <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F24" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="S24" t="str">
         <f t="shared" si="0"/>
@@ -74371,10 +74380,10 @@
         <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="S25" t="str">
         <f t="shared" si="0"/>
@@ -74386,10 +74395,10 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="S26" t="str">
         <f t="shared" si="0"/>
@@ -74401,10 +74410,10 @@
         <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F27" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S27" t="str">
         <f t="shared" si="0"/>
@@ -74421,7 +74430,7 @@
   <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74431,69 +74440,75 @@
         <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>626</v>
       </c>
       <c r="E1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I1" t="s">
         <v>515</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K1" t="s">
         <v>516</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>517</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>518</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>519</v>
       </c>
-      <c r="N1" t="s">
-        <v>520</v>
-      </c>
       <c r="P1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>136</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>628</v>
+      </c>
+      <c r="K2" t="s">
         <v>138</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>139</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>140</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>141</v>
-      </c>
-      <c r="N2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -74516,19 +74531,22 @@
         <v>288</v>
       </c>
       <c r="I3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K3" t="s">
         <v>143</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>144</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>145</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>146</v>
-      </c>
-      <c r="N3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -74551,19 +74569,22 @@
         <v>151</v>
       </c>
       <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>630</v>
+      </c>
+      <c r="K4" t="s">
         <v>148</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>149</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>150</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>151</v>
-      </c>
-      <c r="N4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -74586,19 +74607,22 @@
         <v>284</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J5" t="s">
+        <v>630</v>
       </c>
       <c r="K5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" t="s">
         <v>153</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>154</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>155</v>
-      </c>
-      <c r="N5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -74621,19 +74645,22 @@
         <v>163</v>
       </c>
       <c r="I6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" t="s">
+        <v>630</v>
+      </c>
+      <c r="K6" t="s">
         <v>157</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>158</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>159</v>
       </c>
-      <c r="M6" t="s">
-        <v>160</v>
-      </c>
       <c r="N6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -74656,19 +74683,22 @@
         <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J7" t="s">
+        <v>630</v>
       </c>
       <c r="K7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" t="s">
         <v>161</v>
       </c>
-      <c r="L7" t="s">
-        <v>162</v>
-      </c>
       <c r="M7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -74691,19 +74721,22 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="J8" t="s">
+        <v>630</v>
       </c>
       <c r="K8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" t="s">
         <v>163</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>164</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>165</v>
-      </c>
-      <c r="N8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -74726,19 +74759,22 @@
         <v>163</v>
       </c>
       <c r="I9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" t="s">
+        <v>630</v>
+      </c>
+      <c r="K9" t="s">
         <v>157</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>158</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>159</v>
       </c>
-      <c r="M9" t="s">
-        <v>160</v>
-      </c>
       <c r="N9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -74761,19 +74797,22 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J10" t="s">
+        <v>630</v>
       </c>
       <c r="K10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M10" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" t="s">
         <v>165</v>
-      </c>
-      <c r="N10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -74796,19 +74835,22 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>630</v>
       </c>
       <c r="K11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" t="s">
         <v>163</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>164</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>165</v>
-      </c>
-      <c r="N11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -74831,24 +74873,27 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" t="s">
+        <v>630</v>
+      </c>
+      <c r="K12" t="s">
         <v>168</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>169</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>170</v>
       </c>
-      <c r="M12" t="s">
-        <v>171</v>
-      </c>
       <c r="N12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13">
         <v>2.0099999999999998</v>
@@ -74866,24 +74911,27 @@
         <v>88</v>
       </c>
       <c r="I13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" t="s">
+        <v>630</v>
+      </c>
+      <c r="K13" t="s">
         <v>173</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>174</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>175</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>176</v>
-      </c>
-      <c r="N13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14">
         <v>2.09</v>
@@ -74901,19 +74949,22 @@
         <v>88</v>
       </c>
       <c r="I14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" t="s">
+        <v>630</v>
+      </c>
+      <c r="K14" t="s">
         <v>173</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>174</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>175</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>176</v>
-      </c>
-      <c r="N14" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -74936,19 +74987,22 @@
         <v>182</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>630</v>
       </c>
       <c r="K15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" t="s">
         <v>179</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>180</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>181</v>
-      </c>
-      <c r="N15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -74971,19 +75025,22 @@
         <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>630</v>
       </c>
       <c r="K16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s">
         <v>183</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>184</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>185</v>
-      </c>
-      <c r="N16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -75003,22 +75060,25 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>630</v>
+      </c>
+      <c r="K17" t="s">
         <v>187</v>
       </c>
-      <c r="I17" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>188</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>189</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>190</v>
-      </c>
-      <c r="N17" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -75041,19 +75101,22 @@
         <v>227</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>630</v>
       </c>
       <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
         <v>192</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>193</v>
       </c>
-      <c r="M18" t="s">
-        <v>194</v>
-      </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -75076,19 +75139,22 @@
         <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>630</v>
       </c>
       <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
         <v>195</v>
       </c>
-      <c r="L19" t="s">
-        <v>196</v>
-      </c>
       <c r="M19" t="s">
+        <v>175</v>
+      </c>
+      <c r="N19" t="s">
         <v>176</v>
-      </c>
-      <c r="N19" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -75111,19 +75177,22 @@
         <v>245</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>630</v>
       </c>
       <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
         <v>197</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>198</v>
       </c>
-      <c r="M20" t="s">
-        <v>199</v>
-      </c>
       <c r="N20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -75146,19 +75215,22 @@
         <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>630</v>
       </c>
       <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
         <v>200</v>
       </c>
-      <c r="L21" t="s">
-        <v>201</v>
-      </c>
       <c r="M21" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" t="s">
         <v>185</v>
-      </c>
-      <c r="N21" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -75178,27 +75250,30 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>630</v>
       </c>
       <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s">
         <v>202</v>
       </c>
-      <c r="L22" t="s">
-        <v>203</v>
-      </c>
       <c r="M22" t="s">
+        <v>189</v>
+      </c>
+      <c r="N22" t="s">
         <v>190</v>
-      </c>
-      <c r="N22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23">
         <v>2.6349999999999998</v>
@@ -75216,24 +75291,27 @@
         <v>39</v>
       </c>
       <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>630</v>
+      </c>
+      <c r="K23" t="s">
         <v>205</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>206</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>207</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>208</v>
-      </c>
-      <c r="N23" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24">
         <v>2.77</v>
@@ -75251,19 +75329,22 @@
         <v>39</v>
       </c>
       <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>630</v>
+      </c>
+      <c r="K24" t="s">
         <v>205</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>206</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>207</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>208</v>
-      </c>
-      <c r="N24" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -75286,19 +75367,22 @@
         <v>91</v>
       </c>
       <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>630</v>
+      </c>
+      <c r="K25" t="s">
         <v>211</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>212</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>213</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>214</v>
-      </c>
-      <c r="N25" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -75321,19 +75405,22 @@
         <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J26" t="s">
+        <v>630</v>
       </c>
       <c r="K26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="s">
         <v>216</v>
       </c>
-      <c r="M26" t="s">
-        <v>217</v>
-      </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -75356,19 +75443,22 @@
         <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J27" t="s">
+        <v>630</v>
       </c>
       <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
         <v>218</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>219</v>
       </c>
-      <c r="M27" t="s">
-        <v>220</v>
-      </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -75391,19 +75481,22 @@
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J28" t="s">
+        <v>630</v>
       </c>
       <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
         <v>221</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>222</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>223</v>
-      </c>
-      <c r="N28" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -75426,19 +75519,22 @@
         <v>157</v>
       </c>
       <c r="I29" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J29" t="s">
+        <v>630</v>
       </c>
       <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
         <v>225</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>226</v>
       </c>
-      <c r="M29" t="s">
-        <v>227</v>
-      </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -75461,19 +75557,22 @@
         <v>217</v>
       </c>
       <c r="I30" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J30" t="s">
+        <v>630</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="s">
         <v>228</v>
       </c>
-      <c r="M30" t="s">
-        <v>229</v>
-      </c>
       <c r="N30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -75496,19 +75595,22 @@
         <v>247</v>
       </c>
       <c r="I31" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="J31" t="s">
+        <v>630</v>
       </c>
       <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
         <v>230</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>231</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>232</v>
-      </c>
-      <c r="N31" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -75531,19 +75633,22 @@
         <v>247</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="J32" t="s">
+        <v>630</v>
       </c>
       <c r="K32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" t="s">
         <v>231</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>232</v>
-      </c>
-      <c r="N32" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -75563,19 +75668,22 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J33" t="s">
+        <v>630</v>
       </c>
       <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
         <v>235</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>236</v>
       </c>
-      <c r="M33" t="s">
-        <v>237</v>
-      </c>
       <c r="N33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -75598,19 +75706,22 @@
         <v>134</v>
       </c>
       <c r="I34" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J34" t="s">
+        <v>630</v>
       </c>
       <c r="K34" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s">
         <v>238</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>239</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>240</v>
-      </c>
-      <c r="N34" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
@@ -75633,19 +75744,22 @@
         <v>288</v>
       </c>
       <c r="I35" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J35" t="s">
+        <v>630</v>
       </c>
       <c r="K35" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" t="s">
         <v>242</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
+        <v>145</v>
+      </c>
+      <c r="N35" t="s">
         <v>243</v>
-      </c>
-      <c r="M35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N35" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -75665,22 +75779,25 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
+        <v>244</v>
+      </c>
+      <c r="I36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36" t="s">
+        <v>630</v>
+      </c>
+      <c r="K36" t="s">
         <v>245</v>
       </c>
-      <c r="I36" t="s">
-        <v>211</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>246</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>247</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>248</v>
-      </c>
-      <c r="N36" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
@@ -75700,19 +75817,22 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="J37" t="s">
+        <v>630</v>
       </c>
       <c r="K37" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s">
         <v>250</v>
       </c>
-      <c r="L37" t="s">
-        <v>251</v>
-      </c>
       <c r="M37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -75735,19 +75855,22 @@
         <v>163</v>
       </c>
       <c r="I38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s">
+        <v>630</v>
+      </c>
+      <c r="K38" t="s">
         <v>252</v>
       </c>
-      <c r="K38" t="s">
-        <v>253</v>
-      </c>
       <c r="L38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -75770,19 +75893,22 @@
         <v>217</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J39" t="s">
+        <v>630</v>
       </c>
       <c r="K39" t="s">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s">
         <v>254</v>
       </c>
-      <c r="L39" t="s">
-        <v>255</v>
-      </c>
       <c r="M39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -75805,24 +75931,27 @@
         <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J40" t="s">
+        <v>630</v>
       </c>
       <c r="K40" t="s">
+        <v>255</v>
+      </c>
+      <c r="L40" t="s">
         <v>256</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>257</v>
       </c>
-      <c r="M40" t="s">
-        <v>258</v>
-      </c>
       <c r="N40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C41">
         <v>4.5449999999999999</v>
@@ -75840,19 +75969,22 @@
         <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="J41" t="s">
+        <v>630</v>
       </c>
       <c r="K41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s">
+        <v>212</v>
+      </c>
+      <c r="M41" t="s">
         <v>213</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>214</v>
-      </c>
-      <c r="N41" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -75875,24 +76007,27 @@
         <v>94</v>
       </c>
       <c r="I42" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J42" t="s">
+        <v>630</v>
       </c>
       <c r="K42" t="s">
+        <v>260</v>
+      </c>
+      <c r="L42" t="s">
         <v>261</v>
       </c>
-      <c r="L42" t="s">
-        <v>262</v>
-      </c>
       <c r="M42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C43">
         <v>4.7300000000000004</v>
@@ -75910,19 +76045,22 @@
         <v>92</v>
       </c>
       <c r="I43" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J43" t="s">
+        <v>630</v>
       </c>
       <c r="K43" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" t="s">
         <v>264</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>265</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>266</v>
-      </c>
-      <c r="N43" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
@@ -75945,19 +76083,22 @@
         <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J44" t="s">
+        <v>630</v>
       </c>
       <c r="K44" t="s">
+        <v>255</v>
+      </c>
+      <c r="L44" t="s">
         <v>256</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>257</v>
       </c>
-      <c r="M44" t="s">
-        <v>258</v>
-      </c>
       <c r="N44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
@@ -75980,19 +76121,22 @@
         <v>93</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J45" t="s">
+        <v>630</v>
       </c>
       <c r="K45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L45" t="s">
+        <v>267</v>
+      </c>
+      <c r="M45" t="s">
         <v>268</v>
       </c>
-      <c r="M45" t="s">
-        <v>269</v>
-      </c>
       <c r="N45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
@@ -76015,19 +76159,22 @@
         <v>93</v>
       </c>
       <c r="I46" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J46" t="s">
+        <v>630</v>
       </c>
       <c r="K46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
@@ -76050,19 +76197,22 @@
         <v>291</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J47" t="s">
+        <v>630</v>
       </c>
       <c r="K47" t="s">
+        <v>270</v>
+      </c>
+      <c r="L47" t="s">
         <v>271</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>272</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>273</v>
-      </c>
-      <c r="N47" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -76085,19 +76235,22 @@
         <v>93</v>
       </c>
       <c r="I48" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J48" t="s">
+        <v>630</v>
       </c>
       <c r="K48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L48" t="s">
+        <v>267</v>
+      </c>
+      <c r="M48" t="s">
         <v>268</v>
       </c>
-      <c r="M48" t="s">
-        <v>269</v>
-      </c>
       <c r="N48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
@@ -76120,24 +76273,27 @@
         <v>291</v>
       </c>
       <c r="I49" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J49" t="s">
+        <v>630</v>
       </c>
       <c r="K49" t="s">
+        <v>274</v>
+      </c>
+      <c r="L49" t="s">
         <v>275</v>
       </c>
-      <c r="L49" t="s">
-        <v>276</v>
-      </c>
       <c r="M49" t="s">
+        <v>272</v>
+      </c>
+      <c r="N49" t="s">
         <v>273</v>
-      </c>
-      <c r="N49" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50">
         <v>5.3449999999999998</v>
@@ -76155,19 +76311,22 @@
         <v>157</v>
       </c>
       <c r="I50" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J50" t="s">
+        <v>630</v>
       </c>
       <c r="K50" t="s">
+        <v>277</v>
+      </c>
+      <c r="L50" t="s">
         <v>278</v>
       </c>
-      <c r="L50" t="s">
-        <v>279</v>
-      </c>
       <c r="M50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -76190,19 +76349,22 @@
         <v>278</v>
       </c>
       <c r="I51" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J51" t="s">
+        <v>630</v>
       </c>
       <c r="K51" t="s">
+        <v>279</v>
+      </c>
+      <c r="L51" t="s">
         <v>280</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>281</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>282</v>
-      </c>
-      <c r="N51" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
@@ -76225,19 +76387,22 @@
         <v>291</v>
       </c>
       <c r="I52" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J52" t="s">
+        <v>630</v>
       </c>
       <c r="K52" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" t="s">
         <v>271</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>272</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>273</v>
-      </c>
-      <c r="N52" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
@@ -76260,19 +76425,22 @@
         <v>295</v>
       </c>
       <c r="I53" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J53" t="s">
+        <v>630</v>
       </c>
       <c r="K53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L53" t="s">
+        <v>283</v>
+      </c>
+      <c r="M53" t="s">
         <v>284</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>285</v>
-      </c>
-      <c r="N53" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -76295,19 +76463,22 @@
         <v>272</v>
       </c>
       <c r="I54" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J54" t="s">
+        <v>630</v>
       </c>
       <c r="K54" t="s">
+        <v>286</v>
+      </c>
+      <c r="L54" t="s">
         <v>287</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>288</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>289</v>
-      </c>
-      <c r="N54" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
@@ -76330,19 +76501,22 @@
         <v>280</v>
       </c>
       <c r="I55" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J55" t="s">
+        <v>630</v>
       </c>
       <c r="K55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L55" t="s">
+        <v>290</v>
+      </c>
+      <c r="M55" t="s">
         <v>291</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>292</v>
-      </c>
-      <c r="N55" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
@@ -76362,27 +76536,30 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
+        <v>293</v>
+      </c>
+      <c r="I56" t="s">
+        <v>172</v>
+      </c>
+      <c r="J56" t="s">
+        <v>630</v>
+      </c>
+      <c r="K56" t="s">
         <v>294</v>
       </c>
-      <c r="I56" t="s">
-        <v>173</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>295</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>296</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>297</v>
-      </c>
-      <c r="N56" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C57">
         <v>5.84</v>
@@ -76400,19 +76577,22 @@
         <v>157</v>
       </c>
       <c r="I57" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J57" t="s">
+        <v>630</v>
       </c>
       <c r="K57" t="s">
+        <v>277</v>
+      </c>
+      <c r="L57" t="s">
         <v>278</v>
       </c>
-      <c r="L57" t="s">
-        <v>279</v>
-      </c>
       <c r="M57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -76435,19 +76615,22 @@
         <v>189</v>
       </c>
       <c r="I58" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J58" t="s">
+        <v>630</v>
       </c>
       <c r="K58" t="s">
+        <v>299</v>
+      </c>
+      <c r="L58" t="s">
         <v>300</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>301</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>302</v>
-      </c>
-      <c r="N58" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
@@ -76470,19 +76653,22 @@
         <v>189</v>
       </c>
       <c r="I59" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J59" t="s">
+        <v>630</v>
       </c>
       <c r="K59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L59" t="s">
         <v>304</v>
       </c>
-      <c r="L59" t="s">
-        <v>305</v>
-      </c>
       <c r="M59" t="s">
+        <v>301</v>
+      </c>
+      <c r="N59" t="s">
         <v>302</v>
-      </c>
-      <c r="N59" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
@@ -76502,22 +76688,25 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I60" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J60" t="s">
+        <v>630</v>
       </c>
       <c r="K60" t="s">
+        <v>305</v>
+      </c>
+      <c r="L60" t="s">
         <v>306</v>
       </c>
-      <c r="L60" t="s">
-        <v>307</v>
-      </c>
       <c r="M60" t="s">
+        <v>296</v>
+      </c>
+      <c r="N60" t="s">
         <v>297</v>
-      </c>
-      <c r="N60" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -76537,22 +76726,25 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I61" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J61" t="s">
+        <v>630</v>
       </c>
       <c r="K61" t="s">
+        <v>307</v>
+      </c>
+      <c r="L61" t="s">
         <v>308</v>
       </c>
-      <c r="L61" t="s">
-        <v>309</v>
-      </c>
       <c r="M61" t="s">
+        <v>296</v>
+      </c>
+      <c r="N61" t="s">
         <v>297</v>
-      </c>
-      <c r="N61" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -76572,22 +76764,25 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
+        <v>309</v>
+      </c>
+      <c r="I62" t="s">
+        <v>172</v>
+      </c>
+      <c r="J62" t="s">
+        <v>630</v>
+      </c>
+      <c r="K62" t="s">
         <v>310</v>
       </c>
-      <c r="I62" t="s">
-        <v>173</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>311</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>312</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>313</v>
-      </c>
-      <c r="N62" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -76610,19 +76805,22 @@
         <v>189</v>
       </c>
       <c r="I63" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J63" t="s">
+        <v>630</v>
       </c>
       <c r="K63" t="s">
+        <v>314</v>
+      </c>
+      <c r="L63" t="s">
         <v>315</v>
       </c>
-      <c r="L63" t="s">
-        <v>316</v>
-      </c>
       <c r="M63" t="s">
+        <v>301</v>
+      </c>
+      <c r="N63" t="s">
         <v>302</v>
-      </c>
-      <c r="N63" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
@@ -76645,19 +76843,22 @@
         <v>189</v>
       </c>
       <c r="I64" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J64" t="s">
+        <v>630</v>
       </c>
       <c r="K64" t="s">
+        <v>316</v>
+      </c>
+      <c r="L64" t="s">
         <v>317</v>
       </c>
-      <c r="L64" t="s">
-        <v>318</v>
-      </c>
       <c r="M64" t="s">
+        <v>301</v>
+      </c>
+      <c r="N64" t="s">
         <v>302</v>
-      </c>
-      <c r="N64" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
@@ -76677,22 +76878,25 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
+        <v>293</v>
+      </c>
+      <c r="I65" t="s">
+        <v>172</v>
+      </c>
+      <c r="J65" t="s">
+        <v>630</v>
+      </c>
+      <c r="K65" t="s">
         <v>294</v>
       </c>
-      <c r="I65" t="s">
-        <v>173</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>295</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>296</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>297</v>
-      </c>
-      <c r="N65" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
@@ -76712,22 +76916,25 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I66" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J66" t="s">
+        <v>630</v>
       </c>
       <c r="K66" t="s">
+        <v>318</v>
+      </c>
+      <c r="L66" t="s">
         <v>319</v>
       </c>
-      <c r="L66" t="s">
-        <v>320</v>
-      </c>
       <c r="M66" t="s">
+        <v>312</v>
+      </c>
+      <c r="N66" t="s">
         <v>313</v>
-      </c>
-      <c r="N66" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
@@ -76750,19 +76957,22 @@
         <v>189</v>
       </c>
       <c r="I67" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J67" t="s">
+        <v>630</v>
       </c>
       <c r="K67" t="s">
+        <v>299</v>
+      </c>
+      <c r="L67" t="s">
         <v>300</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>301</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>302</v>
-      </c>
-      <c r="N67" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -76785,19 +76995,22 @@
         <v>189</v>
       </c>
       <c r="I68" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J68" t="s">
+        <v>630</v>
       </c>
       <c r="K68" t="s">
+        <v>303</v>
+      </c>
+      <c r="L68" t="s">
         <v>304</v>
       </c>
-      <c r="L68" t="s">
-        <v>305</v>
-      </c>
       <c r="M68" t="s">
+        <v>301</v>
+      </c>
+      <c r="N68" t="s">
         <v>302</v>
-      </c>
-      <c r="N68" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
@@ -76817,22 +77030,25 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
+        <v>309</v>
+      </c>
+      <c r="I69" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" t="s">
+        <v>630</v>
+      </c>
+      <c r="K69" t="s">
         <v>310</v>
       </c>
-      <c r="I69" t="s">
-        <v>173</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>311</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>312</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>313</v>
-      </c>
-      <c r="N69" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
@@ -76855,19 +77071,22 @@
         <v>74</v>
       </c>
       <c r="I70" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J70" t="s">
+        <v>630</v>
       </c>
       <c r="K70" t="s">
+        <v>320</v>
+      </c>
+      <c r="L70" t="s">
         <v>321</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>322</v>
       </c>
-      <c r="M70" t="s">
-        <v>323</v>
-      </c>
       <c r="N70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
@@ -76890,19 +77109,22 @@
         <v>74</v>
       </c>
       <c r="I71" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J71" t="s">
+        <v>630</v>
       </c>
       <c r="K71" t="s">
+        <v>323</v>
+      </c>
+      <c r="L71" t="s">
         <v>324</v>
       </c>
-      <c r="L71" t="s">
-        <v>325</v>
-      </c>
       <c r="M71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
@@ -76925,19 +77147,22 @@
         <v>74</v>
       </c>
       <c r="I72" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J72" t="s">
+        <v>630</v>
       </c>
       <c r="K72" t="s">
+        <v>320</v>
+      </c>
+      <c r="L72" t="s">
         <v>321</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>322</v>
       </c>
-      <c r="M72" t="s">
-        <v>323</v>
-      </c>
       <c r="N72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
@@ -76960,19 +77185,22 @@
         <v>258</v>
       </c>
       <c r="I73" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J73" t="s">
+        <v>630</v>
       </c>
       <c r="K73" t="s">
+        <v>325</v>
+      </c>
+      <c r="L73" t="s">
         <v>326</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>327</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>328</v>
-      </c>
-      <c r="N73" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
@@ -76995,19 +77223,22 @@
         <v>298</v>
       </c>
       <c r="I74" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J74" t="s">
+        <v>630</v>
       </c>
       <c r="K74" t="s">
+        <v>329</v>
+      </c>
+      <c r="L74" t="s">
         <v>330</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>331</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>332</v>
-      </c>
-      <c r="N74" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
@@ -77030,19 +77261,22 @@
         <v>258</v>
       </c>
       <c r="I75" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J75" t="s">
+        <v>630</v>
       </c>
       <c r="K75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L75" t="s">
+        <v>326</v>
+      </c>
+      <c r="M75" t="s">
         <v>327</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>328</v>
-      </c>
-      <c r="N75" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
@@ -77065,19 +77299,22 @@
         <v>211</v>
       </c>
       <c r="I76" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J76" t="s">
+        <v>630</v>
       </c>
       <c r="K76" t="s">
+        <v>334</v>
+      </c>
+      <c r="L76" t="s">
         <v>335</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>336</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>337</v>
-      </c>
-      <c r="N76" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
@@ -77100,24 +77337,27 @@
         <v>211</v>
       </c>
       <c r="I77" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="J77" t="s">
+        <v>630</v>
       </c>
       <c r="K77" t="s">
+        <v>338</v>
+      </c>
+      <c r="L77" t="s">
         <v>339</v>
       </c>
-      <c r="L77" t="s">
-        <v>340</v>
-      </c>
       <c r="M77" t="s">
+        <v>336</v>
+      </c>
+      <c r="N77" t="s">
         <v>337</v>
-      </c>
-      <c r="N77" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C78">
         <v>7.51</v>
@@ -77135,19 +77375,22 @@
         <v>256</v>
       </c>
       <c r="I78" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J78" t="s">
+        <v>630</v>
       </c>
       <c r="K78" t="s">
+        <v>341</v>
+      </c>
+      <c r="L78" t="s">
         <v>342</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>343</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>344</v>
-      </c>
-      <c r="N78" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
@@ -77170,24 +77413,27 @@
         <v>299</v>
       </c>
       <c r="I79" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="J79" t="s">
+        <v>630</v>
       </c>
       <c r="K79" t="s">
+        <v>345</v>
+      </c>
+      <c r="L79" t="s">
         <v>346</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>347</v>
       </c>
-      <c r="M79" t="s">
-        <v>348</v>
-      </c>
       <c r="N79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C80">
         <v>7.72</v>
@@ -77205,19 +77451,22 @@
         <v>256</v>
       </c>
       <c r="I80" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J80" t="s">
+        <v>630</v>
       </c>
       <c r="K80" t="s">
+        <v>349</v>
+      </c>
+      <c r="L80" t="s">
         <v>350</v>
       </c>
-      <c r="L80" t="s">
-        <v>351</v>
-      </c>
       <c r="M80" t="s">
+        <v>343</v>
+      </c>
+      <c r="N80" t="s">
         <v>344</v>
-      </c>
-      <c r="N80" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
@@ -77240,19 +77489,22 @@
         <v>298</v>
       </c>
       <c r="I81" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J81" t="s">
+        <v>630</v>
       </c>
       <c r="K81" t="s">
+        <v>351</v>
+      </c>
+      <c r="L81" t="s">
         <v>352</v>
       </c>
-      <c r="L81" t="s">
-        <v>353</v>
-      </c>
       <c r="M81" t="s">
+        <v>331</v>
+      </c>
+      <c r="N81" t="s">
         <v>332</v>
-      </c>
-      <c r="N81" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
@@ -77272,22 +77524,25 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I82" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J82" t="s">
+        <v>630</v>
       </c>
       <c r="K82" t="s">
+        <v>353</v>
+      </c>
+      <c r="L82" t="s">
         <v>354</v>
       </c>
-      <c r="L82" t="s">
-        <v>355</v>
-      </c>
       <c r="M82" t="s">
+        <v>296</v>
+      </c>
+      <c r="N82" t="s">
         <v>297</v>
-      </c>
-      <c r="N82" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
@@ -77307,22 +77562,25 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I83" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J83" t="s">
+        <v>630</v>
       </c>
       <c r="K83" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M83" t="s">
+        <v>296</v>
+      </c>
+      <c r="N83" t="s">
         <v>297</v>
-      </c>
-      <c r="N83" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
@@ -77342,22 +77600,25 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I84" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J84" t="s">
+        <v>630</v>
       </c>
       <c r="K84" t="s">
+        <v>353</v>
+      </c>
+      <c r="L84" t="s">
         <v>354</v>
       </c>
-      <c r="L84" t="s">
-        <v>355</v>
-      </c>
       <c r="M84" t="s">
+        <v>296</v>
+      </c>
+      <c r="N84" t="s">
         <v>297</v>
-      </c>
-      <c r="N84" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
@@ -77377,22 +77638,25 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
+        <v>356</v>
+      </c>
+      <c r="I85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J85" t="s">
+        <v>630</v>
+      </c>
+      <c r="K85" t="s">
+        <v>355</v>
+      </c>
+      <c r="L85" t="s">
         <v>357</v>
       </c>
-      <c r="I85" t="s">
-        <v>148</v>
-      </c>
-      <c r="K85" t="s">
-        <v>356</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>358</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>359</v>
-      </c>
-      <c r="N85" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
@@ -77412,22 +77676,25 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I86" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J86" t="s">
+        <v>630</v>
       </c>
       <c r="K86" t="s">
+        <v>360</v>
+      </c>
+      <c r="L86" t="s">
         <v>361</v>
       </c>
-      <c r="L86" t="s">
-        <v>362</v>
-      </c>
       <c r="M86" t="s">
+        <v>312</v>
+      </c>
+      <c r="N86" t="s">
         <v>313</v>
-      </c>
-      <c r="N86" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
@@ -77450,19 +77717,22 @@
         <v>301</v>
       </c>
       <c r="I87" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J87" t="s">
+        <v>630</v>
       </c>
       <c r="K87" t="s">
+        <v>362</v>
+      </c>
+      <c r="L87" t="s">
         <v>363</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>364</v>
       </c>
-      <c r="M87" t="s">
-        <v>365</v>
-      </c>
       <c r="N87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
@@ -77482,22 +77752,25 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I88" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J88" t="s">
+        <v>630</v>
       </c>
       <c r="K88" t="s">
+        <v>365</v>
+      </c>
+      <c r="L88" t="s">
         <v>366</v>
       </c>
-      <c r="L88" t="s">
-        <v>367</v>
-      </c>
       <c r="M88" t="s">
+        <v>312</v>
+      </c>
+      <c r="N88" t="s">
         <v>313</v>
-      </c>
-      <c r="N88" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
@@ -77520,24 +77793,27 @@
         <v>299</v>
       </c>
       <c r="I89" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J89" t="s">
+        <v>630</v>
       </c>
       <c r="K89" t="s">
+        <v>367</v>
+      </c>
+      <c r="L89" t="s">
         <v>368</v>
       </c>
-      <c r="L89" t="s">
-        <v>369</v>
-      </c>
       <c r="M89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C90">
         <v>8.8000000000000007</v>
@@ -77555,19 +77831,22 @@
         <v>189</v>
       </c>
       <c r="I90" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J90" t="s">
+        <v>630</v>
       </c>
       <c r="K90" t="s">
+        <v>370</v>
+      </c>
+      <c r="L90" t="s">
         <v>371</v>
       </c>
-      <c r="L90" t="s">
-        <v>372</v>
-      </c>
       <c r="M90" t="s">
+        <v>301</v>
+      </c>
+      <c r="N90" t="s">
         <v>302</v>
-      </c>
-      <c r="N90" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
@@ -77590,19 +77869,22 @@
         <v>299</v>
       </c>
       <c r="I91" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J91" t="s">
+        <v>630</v>
       </c>
       <c r="K91" t="s">
+        <v>372</v>
+      </c>
+      <c r="L91" t="s">
         <v>373</v>
       </c>
-      <c r="L91" t="s">
-        <v>374</v>
-      </c>
       <c r="M91" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N91" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
@@ -77625,19 +77907,22 @@
         <v>191</v>
       </c>
       <c r="I92" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J92" t="s">
+        <v>630</v>
       </c>
       <c r="K92" t="s">
+        <v>374</v>
+      </c>
+      <c r="L92" t="s">
         <v>375</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>376</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>377</v>
-      </c>
-      <c r="N92" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
@@ -77660,19 +77945,22 @@
         <v>189</v>
       </c>
       <c r="I93" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J93" t="s">
+        <v>630</v>
       </c>
       <c r="K93" t="s">
+        <v>378</v>
+      </c>
+      <c r="L93" t="s">
         <v>379</v>
       </c>
-      <c r="L93" t="s">
-        <v>380</v>
-      </c>
       <c r="M93" t="s">
+        <v>301</v>
+      </c>
+      <c r="N93" t="s">
         <v>302</v>
-      </c>
-      <c r="N93" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
@@ -77695,19 +77983,22 @@
         <v>191</v>
       </c>
       <c r="I94" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J94" t="s">
+        <v>630</v>
       </c>
       <c r="K94" t="s">
+        <v>380</v>
+      </c>
+      <c r="L94" t="s">
         <v>381</v>
       </c>
-      <c r="L94" t="s">
-        <v>382</v>
-      </c>
       <c r="M94" t="s">
+        <v>376</v>
+      </c>
+      <c r="N94" t="s">
         <v>377</v>
-      </c>
-      <c r="N94" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
@@ -77730,24 +78021,27 @@
         <v>189</v>
       </c>
       <c r="I95" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J95" t="s">
+        <v>630</v>
       </c>
       <c r="K95" t="s">
+        <v>382</v>
+      </c>
+      <c r="L95" t="s">
         <v>383</v>
       </c>
-      <c r="L95" t="s">
-        <v>384</v>
-      </c>
       <c r="M95" t="s">
+        <v>301</v>
+      </c>
+      <c r="N95" t="s">
         <v>302</v>
-      </c>
-      <c r="N95" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C96">
         <v>8.23</v>
@@ -77765,24 +78059,27 @@
         <v>201</v>
       </c>
       <c r="I96" t="s">
+        <v>385</v>
+      </c>
+      <c r="J96" t="s">
+        <v>630</v>
+      </c>
+      <c r="K96" t="s">
         <v>386</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>387</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>388</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>389</v>
-      </c>
-      <c r="N96" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C97">
         <v>8.59</v>
@@ -77800,19 +78097,22 @@
         <v>201</v>
       </c>
       <c r="I97" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J97" t="s">
+        <v>630</v>
       </c>
       <c r="K97" t="s">
+        <v>391</v>
+      </c>
+      <c r="L97" t="s">
         <v>392</v>
       </c>
-      <c r="L97" t="s">
-        <v>393</v>
-      </c>
       <c r="M97" t="s">
+        <v>388</v>
+      </c>
+      <c r="N97" t="s">
         <v>389</v>
-      </c>
-      <c r="N97" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -77835,24 +78135,27 @@
         <v>163</v>
       </c>
       <c r="I98" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J98" t="s">
+        <v>630</v>
       </c>
       <c r="K98" t="s">
+        <v>393</v>
+      </c>
+      <c r="L98" t="s">
         <v>394</v>
       </c>
-      <c r="L98" t="s">
-        <v>395</v>
-      </c>
       <c r="M98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C99">
         <v>8.6199999999999992</v>
@@ -77870,24 +78173,27 @@
         <v>17</v>
       </c>
       <c r="I99" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J99" t="s">
+        <v>630</v>
       </c>
       <c r="K99" t="s">
+        <v>396</v>
+      </c>
+      <c r="L99" t="s">
         <v>397</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>398</v>
       </c>
-      <c r="M99" t="s">
-        <v>399</v>
-      </c>
       <c r="N99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C100">
         <v>8.1349999999999998</v>
@@ -77905,24 +78211,27 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J100" t="s">
+        <v>630</v>
       </c>
       <c r="K100" t="s">
+        <v>400</v>
+      </c>
+      <c r="L100" t="s">
         <v>401</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
+        <v>301</v>
+      </c>
+      <c r="N100" t="s">
         <v>402</v>
-      </c>
-      <c r="M100" t="s">
-        <v>302</v>
-      </c>
-      <c r="N100" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C101">
         <v>8.2149999999999999</v>
@@ -77940,24 +78249,27 @@
         <v>191</v>
       </c>
       <c r="I101" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J101" t="s">
+        <v>630</v>
       </c>
       <c r="K101" t="s">
+        <v>404</v>
+      </c>
+      <c r="L101" t="s">
         <v>405</v>
       </c>
-      <c r="L101" t="s">
-        <v>406</v>
-      </c>
       <c r="M101" t="s">
+        <v>376</v>
+      </c>
+      <c r="N101" t="s">
         <v>377</v>
-      </c>
-      <c r="N101" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C102">
         <v>8.4239999999999995</v>
@@ -77975,24 +78287,27 @@
         <v>189</v>
       </c>
       <c r="I102" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="J102" t="s">
+        <v>630</v>
       </c>
       <c r="K102" t="s">
+        <v>407</v>
+      </c>
+      <c r="L102" t="s">
         <v>408</v>
       </c>
-      <c r="L102" t="s">
-        <v>409</v>
-      </c>
       <c r="M102" t="s">
+        <v>301</v>
+      </c>
+      <c r="N102" t="s">
         <v>302</v>
-      </c>
-      <c r="N102" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C103">
         <v>6.085</v>
@@ -78010,24 +78325,27 @@
         <v>159</v>
       </c>
       <c r="I103" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J103" t="s">
+        <v>630</v>
       </c>
       <c r="K103" t="s">
+        <v>410</v>
+      </c>
+      <c r="L103" t="s">
         <v>411</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>412</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>413</v>
-      </c>
-      <c r="N103" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C104">
         <v>8.2149999999999999</v>
@@ -78045,24 +78363,27 @@
         <v>159</v>
       </c>
       <c r="I104" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J104" t="s">
+        <v>630</v>
       </c>
       <c r="K104" t="s">
+        <v>415</v>
+      </c>
+      <c r="L104" t="s">
         <v>416</v>
       </c>
-      <c r="L104" t="s">
-        <v>417</v>
-      </c>
       <c r="M104" t="s">
+        <v>412</v>
+      </c>
+      <c r="N104" t="s">
         <v>413</v>
-      </c>
-      <c r="N104" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C105">
         <v>8.3350000000000009</v>
@@ -78080,19 +78401,22 @@
         <v>159</v>
       </c>
       <c r="I105" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J105" t="s">
+        <v>630</v>
       </c>
       <c r="K105" t="s">
+        <v>418</v>
+      </c>
+      <c r="L105" t="s">
         <v>419</v>
       </c>
-      <c r="L105" t="s">
-        <v>420</v>
-      </c>
       <c r="M105" t="s">
+        <v>412</v>
+      </c>
+      <c r="N105" t="s">
         <v>413</v>
-      </c>
-      <c r="N105" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -78115,24 +78439,27 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J106" t="s">
+        <v>630</v>
       </c>
       <c r="K106" t="s">
+        <v>420</v>
+      </c>
+      <c r="L106" t="s">
         <v>421</v>
       </c>
-      <c r="L106" t="s">
-        <v>422</v>
-      </c>
       <c r="M106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -78150,24 +78477,27 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J107" t="s">
+        <v>630</v>
       </c>
       <c r="K107" t="s">
+        <v>420</v>
+      </c>
+      <c r="L107" t="s">
         <v>421</v>
       </c>
-      <c r="L107" t="s">
-        <v>422</v>
-      </c>
       <c r="M107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C108">
         <v>3.9169999999999998</v>
@@ -78185,24 +78515,27 @@
         <v>49</v>
       </c>
       <c r="I108" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J108" t="s">
+        <v>630</v>
       </c>
       <c r="K108" t="s">
+        <v>424</v>
+      </c>
+      <c r="L108" t="s">
         <v>425</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
+        <v>216</v>
+      </c>
+      <c r="N108" t="s">
         <v>426</v>
-      </c>
-      <c r="M108" t="s">
-        <v>217</v>
-      </c>
-      <c r="N108" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C109">
         <v>3.9350000000000001</v>
@@ -78220,24 +78553,27 @@
         <v>51</v>
       </c>
       <c r="I109" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J109" t="s">
+        <v>630</v>
       </c>
       <c r="K109" t="s">
+        <v>428</v>
+      </c>
+      <c r="L109" t="s">
         <v>429</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
+        <v>219</v>
+      </c>
+      <c r="N109" t="s">
         <v>430</v>
-      </c>
-      <c r="M109" t="s">
-        <v>220</v>
-      </c>
-      <c r="N109" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -78260,19 +78596,22 @@
         <v>237</v>
       </c>
       <c r="I111" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J111" t="s">
+        <v>630</v>
       </c>
       <c r="K111" t="s">
+        <v>432</v>
+      </c>
+      <c r="L111" t="s">
         <v>433</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>434</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>435</v>
-      </c>
-      <c r="N111" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -78295,19 +78634,22 @@
         <v>147</v>
       </c>
       <c r="I112" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J112" t="s">
+        <v>630</v>
       </c>
       <c r="K112" t="s">
+        <v>436</v>
+      </c>
+      <c r="L112" t="s">
         <v>437</v>
       </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>438</v>
       </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>439</v>
-      </c>
-      <c r="N112" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -78330,19 +78672,22 @@
         <v>227</v>
       </c>
       <c r="I113" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J113" t="s">
+        <v>630</v>
       </c>
       <c r="K113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L113" t="s">
+        <v>440</v>
+      </c>
+      <c r="M113" t="s">
+        <v>193</v>
+      </c>
+      <c r="N113" t="s">
         <v>441</v>
-      </c>
-      <c r="M113" t="s">
-        <v>194</v>
-      </c>
-      <c r="N113" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -78365,24 +78710,27 @@
         <v>237</v>
       </c>
       <c r="I114" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="J114" t="s">
+        <v>630</v>
       </c>
       <c r="K114" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L114" t="s">
+        <v>433</v>
+      </c>
+      <c r="M114" t="s">
         <v>434</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>435</v>
-      </c>
-      <c r="N114" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C115">
         <v>5.35</v>
@@ -78400,19 +78748,22 @@
         <v>278</v>
       </c>
       <c r="I115" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J115" t="s">
+        <v>630</v>
       </c>
       <c r="K115" t="s">
+        <v>444</v>
+      </c>
+      <c r="L115" t="s">
         <v>445</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>446</v>
       </c>
-      <c r="M115" t="s">
-        <v>447</v>
-      </c>
       <c r="N115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -78435,24 +78786,27 @@
         <v>278</v>
       </c>
       <c r="I116" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J116" t="s">
+        <v>630</v>
       </c>
       <c r="K116" t="s">
+        <v>444</v>
+      </c>
+      <c r="L116" t="s">
         <v>445</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>446</v>
       </c>
-      <c r="M116" t="s">
-        <v>447</v>
-      </c>
       <c r="N116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C117">
         <v>5.73</v>
@@ -78470,29 +78824,32 @@
         <v>295</v>
       </c>
       <c r="I117" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J117" t="s">
+        <v>630</v>
       </c>
       <c r="K117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L117" t="s">
+        <v>448</v>
+      </c>
+      <c r="M117" t="s">
         <v>449</v>
       </c>
-      <c r="M117" t="s">
-        <v>450</v>
-      </c>
       <c r="N117" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C119">
         <v>4.0999999999999996</v>
@@ -78510,24 +78867,27 @@
         <v>225</v>
       </c>
       <c r="I119" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="J119" t="s">
+        <v>630</v>
       </c>
       <c r="K119" t="s">
+        <v>451</v>
+      </c>
+      <c r="L119" t="s">
         <v>452</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>453</v>
       </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
         <v>454</v>
-      </c>
-      <c r="N119" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C120">
         <v>3.3</v>
@@ -78545,24 +78905,27 @@
         <v>225</v>
       </c>
       <c r="I120" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="J120" t="s">
+        <v>630</v>
       </c>
       <c r="K120" t="s">
+        <v>456</v>
+      </c>
+      <c r="L120" t="s">
         <v>457</v>
       </c>
-      <c r="L120" t="s">
-        <v>458</v>
-      </c>
       <c r="M120" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N120" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C121">
         <v>3.27</v>
@@ -78579,22 +78942,25 @@
       <c r="H121">
         <v>225</v>
       </c>
+      <c r="J121" t="s">
+        <v>630</v>
+      </c>
       <c r="K121" t="s">
+        <v>456</v>
+      </c>
+      <c r="L121" t="s">
         <v>457</v>
       </c>
-      <c r="L121" t="s">
-        <v>458</v>
-      </c>
       <c r="M121" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N121" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C122">
         <v>1.3</v>
@@ -78612,24 +78978,27 @@
         <v>252</v>
       </c>
       <c r="I122" t="s">
+        <v>461</v>
+      </c>
+      <c r="J122" t="s">
+        <v>630</v>
+      </c>
+      <c r="K122" t="s">
         <v>462</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>463</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
+        <v>463</v>
+      </c>
+      <c r="N122" t="s">
         <v>464</v>
-      </c>
-      <c r="M122" t="s">
-        <v>464</v>
-      </c>
-      <c r="N122" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C123">
         <v>3.21</v>
@@ -78646,22 +79015,25 @@
       <c r="H123">
         <v>94</v>
       </c>
+      <c r="J123" t="s">
+        <v>630</v>
+      </c>
       <c r="K123" t="s">
+        <v>466</v>
+      </c>
+      <c r="L123" t="s">
         <v>467</v>
       </c>
-      <c r="L123" t="s">
-        <v>468</v>
-      </c>
       <c r="M123" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C124">
         <v>3.87</v>
@@ -78678,22 +79050,25 @@
       <c r="H124">
         <v>39</v>
       </c>
+      <c r="J124" t="s">
+        <v>630</v>
+      </c>
       <c r="K124" t="s">
+        <v>469</v>
+      </c>
+      <c r="L124" t="s">
+        <v>206</v>
+      </c>
+      <c r="M124" t="s">
         <v>470</v>
       </c>
-      <c r="L124" t="s">
-        <v>207</v>
-      </c>
-      <c r="M124" t="s">
-        <v>471</v>
-      </c>
       <c r="N124" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C125">
         <v>7.76</v>
@@ -78710,22 +79085,25 @@
       <c r="H125">
         <v>145</v>
       </c>
+      <c r="J125" t="s">
+        <v>630</v>
+      </c>
       <c r="K125" t="s">
+        <v>472</v>
+      </c>
+      <c r="L125" t="s">
         <v>473</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>474</v>
       </c>
-      <c r="M125" t="s">
+      <c r="N125" t="s">
         <v>475</v>
-      </c>
-      <c r="N125" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C126">
         <v>7.04</v>
@@ -78742,22 +79120,25 @@
       <c r="H126">
         <v>145</v>
       </c>
+      <c r="J126" t="s">
+        <v>630</v>
+      </c>
       <c r="K126" t="s">
+        <v>477</v>
+      </c>
+      <c r="L126" t="s">
         <v>478</v>
       </c>
-      <c r="L126" t="s">
-        <v>479</v>
-      </c>
       <c r="M126" t="s">
+        <v>474</v>
+      </c>
+      <c r="N126" t="s">
         <v>475</v>
-      </c>
-      <c r="N126" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D127">
         <v>8.3000000000000007</v>
@@ -78771,22 +79152,25 @@
       <c r="H127">
         <v>301</v>
       </c>
+      <c r="J127" t="s">
+        <v>630</v>
+      </c>
       <c r="K127" t="s">
+        <v>480</v>
+      </c>
+      <c r="L127" t="s">
         <v>481</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>482</v>
       </c>
-      <c r="M127" t="s">
+      <c r="N127" t="s">
         <v>483</v>
-      </c>
-      <c r="N127" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D128">
         <v>8.58</v>
@@ -78800,22 +79184,25 @@
       <c r="H128">
         <v>301</v>
       </c>
+      <c r="J128" t="s">
+        <v>630</v>
+      </c>
       <c r="K128" t="s">
+        <v>480</v>
+      </c>
+      <c r="L128" t="s">
         <v>481</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>482</v>
       </c>
-      <c r="M128" t="s">
+      <c r="N128" t="s">
         <v>483</v>
-      </c>
-      <c r="N128" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C129">
         <v>7.71</v>
@@ -78833,24 +79220,27 @@
         <v>256</v>
       </c>
       <c r="I129" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="J129" t="s">
+        <v>630</v>
       </c>
       <c r="K129" t="s">
+        <v>349</v>
+      </c>
+      <c r="L129" t="s">
         <v>350</v>
       </c>
-      <c r="L129" t="s">
-        <v>351</v>
-      </c>
       <c r="M129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N129" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C130">
         <v>1.31</v>
@@ -78868,19 +79258,22 @@
         <v>252</v>
       </c>
       <c r="I130" t="s">
+        <v>461</v>
+      </c>
+      <c r="J130" t="s">
+        <v>630</v>
+      </c>
+      <c r="K130" t="s">
         <v>462</v>
       </c>
-      <c r="K130" t="s">
+      <c r="L130" t="s">
         <v>463</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
+        <v>488</v>
+      </c>
+      <c r="N130" t="s">
         <v>464</v>
-      </c>
-      <c r="M130" t="s">
-        <v>489</v>
-      </c>
-      <c r="N130" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
@@ -78903,24 +79296,27 @@
         <v>91</v>
       </c>
       <c r="I131" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="J131" t="s">
+        <v>630</v>
       </c>
       <c r="K131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L131" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M131" t="s">
+        <v>489</v>
+      </c>
+      <c r="N131" t="s">
         <v>490</v>
-      </c>
-      <c r="N131" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C132">
         <v>5.45</v>
@@ -78938,24 +79334,27 @@
         <v>295</v>
       </c>
       <c r="I132" t="s">
+        <v>492</v>
+      </c>
+      <c r="J132" t="s">
+        <v>630</v>
+      </c>
+      <c r="K132" t="s">
+        <v>444</v>
+      </c>
+      <c r="L132" t="s">
+        <v>448</v>
+      </c>
+      <c r="M132" t="s">
         <v>493</v>
       </c>
-      <c r="K132" t="s">
-        <v>445</v>
-      </c>
-      <c r="L132" t="s">
-        <v>449</v>
-      </c>
-      <c r="M132" t="s">
-        <v>494</v>
-      </c>
       <c r="N132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C133">
         <v>5.79</v>
@@ -78970,27 +79369,30 @@
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I133" t="s">
-        <v>493</v>
+        <v>492</v>
+      </c>
+      <c r="J133" t="s">
+        <v>630</v>
       </c>
       <c r="K133" t="s">
+        <v>495</v>
+      </c>
+      <c r="L133" t="s">
+        <v>306</v>
+      </c>
+      <c r="M133" t="s">
         <v>496</v>
       </c>
-      <c r="L133" t="s">
-        <v>307</v>
-      </c>
-      <c r="M133" t="s">
-        <v>497</v>
-      </c>
       <c r="N133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C134">
         <v>6.07</v>
@@ -79005,27 +79407,30 @@
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I134" t="s">
-        <v>493</v>
+        <v>492</v>
+      </c>
+      <c r="J134" t="s">
+        <v>630</v>
       </c>
       <c r="K134" t="s">
+        <v>495</v>
+      </c>
+      <c r="L134" t="s">
+        <v>306</v>
+      </c>
+      <c r="M134" t="s">
         <v>496</v>
       </c>
-      <c r="L134" t="s">
-        <v>307</v>
-      </c>
-      <c r="M134" t="s">
-        <v>497</v>
-      </c>
       <c r="N134" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C135">
         <v>5.36</v>
@@ -79042,17 +79447,20 @@
       <c r="H135">
         <v>103</v>
       </c>
+      <c r="J135" t="s">
+        <v>630</v>
+      </c>
       <c r="K135" t="s">
+        <v>499</v>
+      </c>
+      <c r="L135" t="s">
         <v>500</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>501</v>
       </c>
-      <c r="M135" t="s">
-        <v>502</v>
-      </c>
       <c r="N135" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
@@ -79075,19 +79483,22 @@
         <v>92</v>
       </c>
       <c r="I136" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="J136" t="s">
+        <v>630</v>
       </c>
       <c r="K136" t="s">
+        <v>263</v>
+      </c>
+      <c r="L136" t="s">
         <v>264</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>265</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>266</v>
-      </c>
-      <c r="N136" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.25">
@@ -79109,17 +79520,20 @@
       <c r="H137">
         <v>272</v>
       </c>
+      <c r="J137" t="s">
+        <v>630</v>
+      </c>
       <c r="K137" t="s">
+        <v>503</v>
+      </c>
+      <c r="L137" t="s">
         <v>504</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>505</v>
       </c>
-      <c r="M137" t="s">
-        <v>506</v>
-      </c>
       <c r="N137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
@@ -79139,19 +79553,22 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
+        <v>506</v>
+      </c>
+      <c r="J138" t="s">
+        <v>630</v>
+      </c>
+      <c r="K138" t="s">
         <v>507</v>
       </c>
-      <c r="K138" t="s">
+      <c r="L138" t="s">
         <v>508</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>509</v>
       </c>
-      <c r="M138" t="s">
+      <c r="N138" t="s">
         <v>510</v>
-      </c>
-      <c r="N138" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
@@ -79173,17 +79590,20 @@
       <c r="H139">
         <v>91</v>
       </c>
+      <c r="J139" t="s">
+        <v>630</v>
+      </c>
       <c r="K139" t="s">
+        <v>511</v>
+      </c>
+      <c r="L139" t="s">
         <v>512</v>
       </c>
-      <c r="L139" t="s">
+      <c r="M139" t="s">
         <v>513</v>
       </c>
-      <c r="M139" t="s">
-        <v>514</v>
-      </c>
       <c r="N139" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
